--- a/codesystems/iwi.xlsx
+++ b/codesystems/iwi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791DA12D-81AC-F648-8785-B5AB7A274D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F0343-5D8E-E145-961C-892717533245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31200" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="398">
   <si>
     <t>01</t>
   </si>
@@ -1204,19 +1204,16 @@
     <t>Ngāti Tiipa</t>
   </si>
   <si>
-    <t>iwi</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/CodeSystem/iwi</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/ValueSet/iwi</t>
-  </si>
-  <si>
     <t>Iwi</t>
   </si>
   <si>
     <t>New Zealand iwi codes</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/cs/iwi</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/ValueSet/iwi</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1571,29 +1568,29 @@
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/codesystems/iwi.xlsx
+++ b/codesystems/iwi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F0343-5D8E-E145-961C-892717533245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791DA12D-81AC-F648-8785-B5AB7A274D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31200" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="399">
   <si>
     <t>01</t>
   </si>
@@ -1204,16 +1204,19 @@
     <t>Ngāti Tiipa</t>
   </si>
   <si>
+    <t>iwi</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/CodeSystem/iwi</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/ValueSet/iwi</t>
+  </si>
+  <si>
     <t>Iwi</t>
   </si>
   <si>
     <t>New Zealand iwi codes</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/cs/iwi</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/ValueSet/iwi</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1568,29 +1571,29 @@
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
